--- a/mod1.xlsx
+++ b/mod1.xlsx
@@ -8,9 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\src\pe-calc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC6893AC-1C0E-47EC-BEA5-B7658EBEE3EF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADEDBD62-76A3-49C4-AD04-1AB036267D2B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10546" xr2:uid="{ABE5EC99-AC4A-4F0C-AF7F-00A5268CF244}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10546" xr2:uid="{F578BF99-A59E-41B1-91C2-03A9D3DC315E}"/>
   </bookViews>
   <sheets>
     <sheet name="table" sheetId="1" r:id="rId1"/>
@@ -38,7 +39,8 @@
     <definedName name="m.push.score">INDEX(m.push.arr, m.push.row, m.push.col)</definedName>
     <definedName name="m.run.col_of_age">OFFSET(男跑!$A$1, 0, MATCH(table!XDY1, 男跑!$A$1:$AZ$1, 0)-1, 400, 1)</definedName>
     <definedName name="m.run.real_sec">LEFT(table!XFD1, 2)*60 + RIGHT(table!XFD1, 2)</definedName>
-    <definedName name="m.run.row" xml:space="preserve"> MATCH(_xlfn.FLOOR.MATH(m.run.real_sec/ 5) * 5, m.run.col_of_age, 0)</definedName>
+    <definedName name="m.run.row" xml:space="preserve"> IFERROR(MATCH(_xlfn.FLOOR.MATH(m.run.real_sec/ 5) * 5, m.run.col_of_age, 0), MATCH(_xlfn.FLOOR.MATH((m.run.real_sec - 5)/ 5) * 5, m.run.col_of_age, 0))</definedName>
+    <definedName name="m.run.score">INDEX(男跑!$A$1:$AZ$400, m.run.row, 1)</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -59,7 +61,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -695,8 +697,11 @@
   <sheetPr codeName="工作表1"/>
   <dimension ref="A1:AO37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC19" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AJ35" sqref="AJ35"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AK2" sqref="AK2:AK37"/>
+    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="1">
+      <selection activeCell="AI2" sqref="AI2:AI37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
@@ -848,7 +853,7 @@
       </c>
       <c r="D2">
         <f ca="1">RANDBETWEEN(15,44)</f>
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>37</v>
@@ -934,7 +939,7 @@
       </c>
       <c r="AD2" s="4" cm="1">
         <f t="array" aca="1" ref="AD2" ca="1">_xlfn.IFS(I2=1, fu.score, I2=2, ffu.score)</f>
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="AE2" t="b">
         <f ca="1">IF(AD2&gt;= 60, TRUE, FALSE)</f>
@@ -951,12 +956,17 @@
         <f ca="1">IF(AG2&gt;= 60, TRUE, FALSE)</f>
         <v>1</v>
       </c>
-      <c r="AI2">
-        <v>1683</v>
+      <c r="AI2" t="str">
+        <f ca="1">_xlfn.CONCAT(RANDBETWEEN(12,19), TEXT(RANDBETWEEN(0,60), "00"))</f>
+        <v>1338</v>
       </c>
       <c r="AJ2" cm="1">
-        <f t="array" aca="1" ref="AJ2" ca="1">INDEX(男跑!$A$1:$AZ$249,m.run.row,1)</f>
-        <v>0</v>
+        <f t="array" aca="1" ref="AJ2" ca="1">m.run.score</f>
+        <v>95</v>
+      </c>
+      <c r="AK2" t="b">
+        <f ca="1">IF(AJ2&gt;= 60, TRUE, FALSE)</f>
+        <v>1</v>
       </c>
       <c r="AO2" t="e" cm="1">
         <f t="array" ref="AO2">m.run.real_sec</f>
@@ -973,7 +983,7 @@
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D37" ca="1" si="0">RANDBETWEEN(15,44)</f>
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="H3" s="3">
         <v>9</v>
@@ -1051,11 +1061,11 @@
       </c>
       <c r="AD3" s="4" cm="1">
         <f t="array" aca="1" ref="AD3" ca="1">_xlfn.IFS(I3=1, fu.score, I3=2, ffu.score)</f>
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="AE3" t="b">
         <f t="shared" ref="AE3:AE37" ca="1" si="8">IF(AD3&gt;= 60, TRUE, FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF3">
         <v>97</v>
@@ -1068,18 +1078,23 @@
         <f t="shared" ref="AH3:AH37" ca="1" si="9">IF(AG3&gt;= 60, TRUE, FALSE)</f>
         <v>1</v>
       </c>
-      <c r="AI3">
-        <v>1981</v>
+      <c r="AI3" t="str">
+        <f t="shared" ref="AI3:AI37" ca="1" si="10">_xlfn.CONCAT(RANDBETWEEN(12,19), TEXT(RANDBETWEEN(0,60), "00"))</f>
+        <v>1206</v>
       </c>
       <c r="AJ3" cm="1">
-        <f t="array" aca="1" ref="AJ3" ca="1">INDEX(男跑!$A$1:$A$249,m.run.row,1)</f>
-        <v>0</v>
+        <f t="array" aca="1" ref="AJ3" ca="1">m.run.score</f>
+        <v>100</v>
+      </c>
+      <c r="AK3" t="b">
+        <f t="shared" ref="AK3:AK37" ca="1" si="11">IF(AJ3&gt;= 60, TRUE, FALSE)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.45">
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H4" s="3">
         <v>2</v>
@@ -1168,18 +1183,23 @@
         <f t="shared" ca="1" si="9"/>
         <v>1</v>
       </c>
-      <c r="AI4">
-        <v>1120</v>
+      <c r="AI4" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1902</v>
       </c>
       <c r="AJ4" cm="1">
-        <f t="array" aca="1" ref="AJ4" ca="1">INDEX(男跑!$A$1:$A$249,m.run.row,1)</f>
-        <v>98</v>
+        <f t="array" aca="1" ref="AJ4" ca="1">m.run.score</f>
+        <v>38</v>
+      </c>
+      <c r="AK4" t="b">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.45">
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H5" s="3">
         <v>9</v>
@@ -1268,18 +1288,23 @@
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
-      <c r="AI5">
-        <v>1348</v>
+      <c r="AI5" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1344</v>
       </c>
       <c r="AJ5" cm="1">
-        <f t="array" aca="1" ref="AJ5" ca="1">INDEX(男跑!$A$1:$A$249,m.run.row,1)</f>
-        <v>69</v>
+        <f t="array" aca="1" ref="AJ5" ca="1">m.run.score</f>
+        <v>70</v>
+      </c>
+      <c r="AK5" t="b">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.45">
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H6" s="3">
         <v>8</v>
@@ -1351,7 +1376,7 @@
       </c>
       <c r="AD6" s="4" cm="1">
         <f t="array" aca="1" ref="AD6" ca="1">_xlfn.IFS(I6=1, fu.score, I6=2, ffu.score)</f>
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AE6" t="b">
         <f t="shared" ca="1" si="8"/>
@@ -1362,24 +1387,29 @@
       </c>
       <c r="AG6" cm="1">
         <f t="array" aca="1" ref="AG6" ca="1">_xlfn.IFS(I6=1, m.push.score,I6=2, f.push.score)</f>
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="AH6" t="b">
         <f t="shared" ca="1" si="9"/>
         <v>1</v>
       </c>
-      <c r="AI6">
-        <v>1272</v>
+      <c r="AI6" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1455</v>
       </c>
       <c r="AJ6" cm="1">
-        <f t="array" aca="1" ref="AJ6" ca="1">INDEX(男跑!$A$1:$A$249,m.run.row,1)</f>
-        <v>100</v>
+        <f t="array" aca="1" ref="AJ6" ca="1">m.run.score</f>
+        <v>83</v>
+      </c>
+      <c r="AK6" t="b">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.45">
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H7" s="3">
         <v>9</v>
@@ -1451,7 +1481,7 @@
       </c>
       <c r="AD7" s="4" cm="1">
         <f t="array" aca="1" ref="AD7" ca="1">_xlfn.IFS(I7=1, fu.score, I7=2, ffu.score)</f>
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="AE7" t="b">
         <f t="shared" ca="1" si="8"/>
@@ -1462,24 +1492,29 @@
       </c>
       <c r="AG7" cm="1">
         <f t="array" aca="1" ref="AG7" ca="1">_xlfn.IFS(I7=1, m.push.score,I7=2, f.push.score)</f>
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="AH7" t="b">
         <f t="shared" ca="1" si="9"/>
         <v>1</v>
       </c>
-      <c r="AI7">
-        <v>1749</v>
+      <c r="AI7" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1855</v>
       </c>
       <c r="AJ7" cm="1">
-        <f t="array" aca="1" ref="AJ7" ca="1">INDEX(男跑!$A$1:$A$249,m.run.row,1)</f>
-        <v>45</v>
+        <f t="array" aca="1" ref="AJ7" ca="1">m.run.score</f>
+        <v>38</v>
+      </c>
+      <c r="AK7" t="b">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.45">
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="H8" s="3">
         <v>5</v>
@@ -1551,7 +1586,7 @@
       </c>
       <c r="AD8" s="4" cm="1">
         <f t="array" aca="1" ref="AD8" ca="1">_xlfn.IFS(I8=1, fu.score, I8=2, ffu.score)</f>
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="AE8" t="b">
         <f t="shared" ca="1" si="8"/>
@@ -1562,24 +1597,29 @@
       </c>
       <c r="AG8" cm="1">
         <f t="array" aca="1" ref="AG8" ca="1">_xlfn.IFS(I8=1, m.push.score,I8=2, f.push.score)</f>
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="AH8" t="b">
         <f t="shared" ca="1" si="9"/>
         <v>1</v>
       </c>
-      <c r="AI8">
-        <v>1858</v>
+      <c r="AI8" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1949</v>
       </c>
       <c r="AJ8" cm="1">
-        <f t="array" aca="1" ref="AJ8" ca="1">INDEX(男跑!$A$1:$A$249,m.run.row,1)</f>
+        <f t="array" aca="1" ref="AJ8" ca="1">m.run.score</f>
+        <v>38</v>
+      </c>
+      <c r="AK8" t="b">
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.45">
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="H9" s="3">
         <v>10</v>
@@ -1651,7 +1691,7 @@
       </c>
       <c r="AD9" s="4" cm="1">
         <f t="array" aca="1" ref="AD9" ca="1">_xlfn.IFS(I9=1, fu.score, I9=2, ffu.score)</f>
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AE9" t="b">
         <f t="shared" ca="1" si="8"/>
@@ -1668,18 +1708,23 @@
         <f t="shared" ca="1" si="9"/>
         <v>1</v>
       </c>
-      <c r="AI9">
-        <v>1923</v>
+      <c r="AI9" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1957</v>
       </c>
       <c r="AJ9" cm="1">
-        <f t="array" aca="1" ref="AJ9" ca="1">INDEX(男跑!$A$1:$A$249,m.run.row,1)</f>
+        <f t="array" aca="1" ref="AJ9" ca="1">m.run.score</f>
+        <v>38</v>
+      </c>
+      <c r="AK9" t="b">
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.45">
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H10" s="3">
         <v>9</v>
@@ -1751,7 +1796,7 @@
       </c>
       <c r="AD10" s="4" cm="1">
         <f t="array" aca="1" ref="AD10" ca="1">_xlfn.IFS(I10=1, fu.score, I10=2, ffu.score)</f>
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="AE10" t="b">
         <f t="shared" ca="1" si="8"/>
@@ -1768,18 +1813,23 @@
         <f t="shared" ca="1" si="9"/>
         <v>1</v>
       </c>
-      <c r="AI10">
-        <v>1712</v>
+      <c r="AI10" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1456</v>
       </c>
       <c r="AJ10" cm="1">
-        <f t="array" aca="1" ref="AJ10" ca="1">INDEX(男跑!$A$1:$A$249,m.run.row,1)</f>
-        <v>52</v>
+        <f t="array" aca="1" ref="AJ10" ca="1">m.run.score</f>
+        <v>83</v>
+      </c>
+      <c r="AK10" t="b">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.45">
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H11" s="3">
         <v>2</v>
@@ -1851,7 +1901,7 @@
       </c>
       <c r="AD11" s="4" cm="1">
         <f t="array" aca="1" ref="AD11" ca="1">_xlfn.IFS(I11=1, fu.score, I11=2, ffu.score)</f>
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="AE11" t="b">
         <f t="shared" ca="1" si="8"/>
@@ -1862,24 +1912,29 @@
       </c>
       <c r="AG11" cm="1">
         <f t="array" aca="1" ref="AG11" ca="1">_xlfn.IFS(I11=1, m.push.score,I11=2, f.push.score)</f>
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AH11" t="b">
         <f t="shared" ca="1" si="9"/>
         <v>1</v>
       </c>
-      <c r="AI11">
-        <v>1733</v>
+      <c r="AI11" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1333</v>
       </c>
       <c r="AJ11" cm="1">
-        <f t="array" aca="1" ref="AJ11" ca="1">INDEX(男跑!$A$1:$A$249,m.run.row,1)</f>
-        <v>0</v>
+        <f t="array" aca="1" ref="AJ11" ca="1">m.run.score</f>
+        <v>78</v>
+      </c>
+      <c r="AK11" t="b">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:41" x14ac:dyDescent="0.45">
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="H12" s="3">
         <v>9</v>
@@ -1951,11 +2006,11 @@
       </c>
       <c r="AD12" s="4" cm="1">
         <f t="array" aca="1" ref="AD12" ca="1">_xlfn.IFS(I12=1, fu.score, I12=2, ffu.score)</f>
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="AE12" t="b">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF12">
         <v>96</v>
@@ -1968,18 +2023,23 @@
         <f t="shared" ca="1" si="9"/>
         <v>1</v>
       </c>
-      <c r="AI12">
-        <v>1786</v>
+      <c r="AI12" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1560</v>
       </c>
       <c r="AJ12" cm="1">
-        <f t="array" aca="1" ref="AJ12" ca="1">INDEX(男跑!$A$1:$A$249,m.run.row,1)</f>
-        <v>0</v>
+        <f t="array" aca="1" ref="AJ12" ca="1">m.run.score</f>
+        <v>70</v>
+      </c>
+      <c r="AK12" t="b">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.45">
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H13" s="3">
         <v>7</v>
@@ -2051,7 +2111,7 @@
       </c>
       <c r="AD13" s="4" cm="1">
         <f t="array" aca="1" ref="AD13" ca="1">_xlfn.IFS(I13=1, fu.score, I13=2, ffu.score)</f>
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="AE13" t="b">
         <f t="shared" ca="1" si="8"/>
@@ -2062,24 +2122,29 @@
       </c>
       <c r="AG13" cm="1">
         <f t="array" aca="1" ref="AG13" ca="1">_xlfn.IFS(I13=1, m.push.score,I13=2, f.push.score)</f>
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="AH13" t="b">
         <f t="shared" ca="1" si="9"/>
         <v>1</v>
       </c>
-      <c r="AI13">
-        <v>1986</v>
+      <c r="AI13" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1537</v>
       </c>
       <c r="AJ13" cm="1">
-        <f t="array" aca="1" ref="AJ13" ca="1">INDEX(男跑!$A$1:$A$249,m.run.row,1)</f>
-        <v>0</v>
+        <f t="array" aca="1" ref="AJ13" ca="1">m.run.score</f>
+        <v>61</v>
+      </c>
+      <c r="AK13" t="b">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.45">
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H14" s="3">
         <v>2</v>
@@ -2151,7 +2216,7 @@
       </c>
       <c r="AD14" s="4" cm="1">
         <f t="array" aca="1" ref="AD14" ca="1">_xlfn.IFS(I14=1, fu.score, I14=2, ffu.score)</f>
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="AE14" t="b">
         <f t="shared" ca="1" si="8"/>
@@ -2162,24 +2227,29 @@
       </c>
       <c r="AG14" cm="1">
         <f t="array" aca="1" ref="AG14" ca="1">_xlfn.IFS(I14=1, m.push.score,I14=2, f.push.score)</f>
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AH14" t="b">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
-      <c r="AI14">
-        <v>1075</v>
+      <c r="AI14" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1844</v>
       </c>
       <c r="AJ14" cm="1">
-        <f t="array" aca="1" ref="AJ14" ca="1">INDEX(男跑!$A$1:$A$249,m.run.row,1)</f>
-        <v>100</v>
+        <f t="array" aca="1" ref="AJ14" ca="1">m.run.score</f>
+        <v>38</v>
+      </c>
+      <c r="AK14" t="b">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.45">
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H15" s="3">
         <v>1</v>
@@ -2251,7 +2321,7 @@
       </c>
       <c r="AD15" s="4" cm="1">
         <f t="array" aca="1" ref="AD15" ca="1">_xlfn.IFS(I15=1, fu.score, I15=2, ffu.score)</f>
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AE15" t="b">
         <f t="shared" ca="1" si="8"/>
@@ -2268,18 +2338,23 @@
         <f t="shared" ca="1" si="9"/>
         <v>1</v>
       </c>
-      <c r="AI15">
-        <v>1220</v>
+      <c r="AI15" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1801</v>
       </c>
       <c r="AJ15" cm="1">
-        <f t="array" aca="1" ref="AJ15" ca="1">INDEX(男跑!$A$1:$A$249,m.run.row,1)</f>
-        <v>99</v>
+        <f t="array" aca="1" ref="AJ15" ca="1">m.run.score</f>
+        <v>46</v>
+      </c>
+      <c r="AK15" t="b">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.45">
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="H16" s="3">
         <v>2</v>
@@ -2351,7 +2426,7 @@
       </c>
       <c r="AD16" s="4" cm="1">
         <f t="array" aca="1" ref="AD16" ca="1">_xlfn.IFS(I16=1, fu.score, I16=2, ffu.score)</f>
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="AE16" t="b">
         <f t="shared" ca="1" si="8"/>
@@ -2362,24 +2437,29 @@
       </c>
       <c r="AG16" cm="1">
         <f t="array" aca="1" ref="AG16" ca="1">_xlfn.IFS(I16=1, m.push.score,I16=2, f.push.score)</f>
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AH16" t="b">
         <f t="shared" ca="1" si="9"/>
         <v>1</v>
       </c>
-      <c r="AI16">
-        <v>1860</v>
+      <c r="AI16" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1502</v>
       </c>
       <c r="AJ16" cm="1">
-        <f t="array" aca="1" ref="AJ16" ca="1">INDEX(男跑!$A$1:$A$249,m.run.row,1)</f>
+        <f t="array" aca="1" ref="AJ16" ca="1">m.run.score</f>
+        <v>57</v>
+      </c>
+      <c r="AK16" t="b">
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="4:39" x14ac:dyDescent="0.45">
       <c r="D17">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -2389,7 +2469,7 @@
       </c>
       <c r="AD17" s="4" cm="1">
         <f t="array" aca="1" ref="AD17" ca="1">_xlfn.IFS(I17=1, fu.score, I17=2, ffu.score)</f>
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AE17" t="b">
         <f t="shared" ca="1" si="8"/>
@@ -2400,24 +2480,29 @@
       </c>
       <c r="AG17" cm="1">
         <f t="array" aca="1" ref="AG17" ca="1">_xlfn.IFS(I17=1, m.push.score,I17=2, f.push.score)</f>
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="AH17" t="b">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
-      <c r="AI17">
-        <v>1921</v>
+      <c r="AI17" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1632</v>
       </c>
       <c r="AJ17" cm="1">
-        <f t="array" aca="1" ref="AJ17" ca="1">INDEX(男跑!$A$1:$A$249,m.run.row,1)</f>
+        <f t="array" aca="1" ref="AJ17" ca="1">m.run.score</f>
+        <v>40</v>
+      </c>
+      <c r="AK17" t="b">
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="4:39" x14ac:dyDescent="0.45">
       <c r="D18">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -2427,7 +2512,7 @@
       </c>
       <c r="AD18" s="4" cm="1">
         <f t="array" aca="1" ref="AD18" ca="1">_xlfn.IFS(I18=1, fu.score, I18=2, ffu.score)</f>
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="AE18" t="b">
         <f t="shared" ca="1" si="8"/>
@@ -2438,24 +2523,29 @@
       </c>
       <c r="AG18" cm="1">
         <f t="array" aca="1" ref="AG18" ca="1">_xlfn.IFS(I18=1, m.push.score,I18=2, f.push.score)</f>
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AH18" t="b">
         <f t="shared" ca="1" si="9"/>
         <v>1</v>
       </c>
-      <c r="AI18">
-        <v>1727</v>
+      <c r="AI18" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1630</v>
       </c>
       <c r="AJ18" cm="1">
-        <f t="array" aca="1" ref="AJ18" ca="1">INDEX(男跑!$A$1:$A$249,m.run.row,1)</f>
-        <v>0</v>
+        <f t="array" aca="1" ref="AJ18" ca="1">m.run.score</f>
+        <v>64</v>
+      </c>
+      <c r="AK18" t="b">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="4:39" x14ac:dyDescent="0.45">
       <c r="D19">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -2465,7 +2555,7 @@
       </c>
       <c r="AD19" s="4" cm="1">
         <f t="array" aca="1" ref="AD19" ca="1">_xlfn.IFS(I19=1, fu.score, I19=2, ffu.score)</f>
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="AE19" t="b">
         <f t="shared" ca="1" si="8"/>
@@ -2476,18 +2566,23 @@
       </c>
       <c r="AG19" cm="1">
         <f t="array" aca="1" ref="AG19" ca="1">_xlfn.IFS(I19=1, m.push.score,I19=2, f.push.score)</f>
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="AH19" t="b">
         <f t="shared" ca="1" si="9"/>
         <v>1</v>
       </c>
-      <c r="AI19">
-        <v>1908</v>
+      <c r="AI19" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1225</v>
       </c>
       <c r="AJ19" cm="1">
-        <f t="array" aca="1" ref="AJ19" ca="1">INDEX(男跑!$A$1:$A$249,m.run.row,1)</f>
-        <v>0</v>
+        <f t="array" aca="1" ref="AJ19" ca="1">m.run.score</f>
+        <v>85</v>
+      </c>
+      <c r="AK19" t="b">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
       </c>
       <c r="AM19">
         <f>_xlfn.FLOOR.MATH(19.2)</f>
@@ -2497,7 +2592,7 @@
     <row r="20" spans="4:39" x14ac:dyDescent="0.45">
       <c r="D20">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I20">
         <v>2</v>
@@ -2524,18 +2619,23 @@
         <f t="shared" ca="1" si="9"/>
         <v>1</v>
       </c>
-      <c r="AI20">
-        <v>1721</v>
+      <c r="AI20" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1448</v>
       </c>
       <c r="AJ20" cm="1">
-        <f t="array" aca="1" ref="AJ20" ca="1">INDEX(男跑!$A$1:$A$249,m.run.row,1)</f>
-        <v>50</v>
+        <f t="array" aca="1" ref="AJ20" ca="1">m.run.score</f>
+        <v>71</v>
+      </c>
+      <c r="AK20" t="b">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="4:39" x14ac:dyDescent="0.45">
       <c r="D21">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -2545,7 +2645,7 @@
       </c>
       <c r="AD21" s="4" cm="1">
         <f t="array" aca="1" ref="AD21" ca="1">_xlfn.IFS(I21=1, fu.score, I21=2, ffu.score)</f>
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AE21" t="b">
         <f t="shared" ca="1" si="8"/>
@@ -2556,24 +2656,29 @@
       </c>
       <c r="AG21" cm="1">
         <f t="array" aca="1" ref="AG21" ca="1">_xlfn.IFS(I21=1, m.push.score,I21=2, f.push.score)</f>
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="AH21" t="b">
         <f t="shared" ca="1" si="9"/>
         <v>1</v>
       </c>
-      <c r="AI21">
-        <v>1253</v>
+      <c r="AI21" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1209</v>
       </c>
       <c r="AJ21" cm="1">
-        <f t="array" aca="1" ref="AJ21" ca="1">INDEX(男跑!$A$1:$A$249,m.run.row,1)</f>
-        <v>83</v>
+        <f t="array" aca="1" ref="AJ21" ca="1">m.run.score</f>
+        <v>100</v>
+      </c>
+      <c r="AK21" t="b">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="4:39" x14ac:dyDescent="0.45">
       <c r="D22">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -2583,7 +2688,7 @@
       </c>
       <c r="AD22" s="4" cm="1">
         <f t="array" aca="1" ref="AD22" ca="1">_xlfn.IFS(I22=1, fu.score, I22=2, ffu.score)</f>
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AE22" t="b">
         <f t="shared" ca="1" si="8"/>
@@ -2594,24 +2699,29 @@
       </c>
       <c r="AG22" cm="1">
         <f t="array" aca="1" ref="AG22" ca="1">_xlfn.IFS(I22=1, m.push.score,I22=2, f.push.score)</f>
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="AH22" t="b">
         <f t="shared" ca="1" si="9"/>
         <v>1</v>
       </c>
-      <c r="AI22">
-        <v>1400</v>
+      <c r="AI22" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1435</v>
       </c>
       <c r="AJ22" cm="1">
-        <f t="array" aca="1" ref="AJ22" ca="1">INDEX(男跑!$A$1:$A$249,m.run.row,1)</f>
-        <v>69</v>
+        <f t="array" aca="1" ref="AJ22" ca="1">m.run.score</f>
+        <v>83</v>
+      </c>
+      <c r="AK22" t="b">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="4:39" x14ac:dyDescent="0.45">
       <c r="D23">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I23">
         <v>2</v>
@@ -2621,7 +2731,7 @@
       </c>
       <c r="AD23" s="4" cm="1">
         <f t="array" aca="1" ref="AD23" ca="1">_xlfn.IFS(I23=1, fu.score, I23=2, ffu.score)</f>
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="AE23" t="b">
         <f t="shared" ca="1" si="8"/>
@@ -2632,24 +2742,29 @@
       </c>
       <c r="AG23" cm="1">
         <f t="array" aca="1" ref="AG23" ca="1">_xlfn.IFS(I23=1, m.push.score,I23=2, f.push.score)</f>
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="AH23" t="b">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="AI23">
-        <v>1191</v>
+        <v>0</v>
+      </c>
+      <c r="AI23" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1512</v>
       </c>
       <c r="AJ23" cm="1">
-        <f t="array" aca="1" ref="AJ23" ca="1">INDEX(男跑!$A$1:$A$249,m.run.row,1)</f>
-        <v>98</v>
+        <f t="array" aca="1" ref="AJ23" ca="1">m.run.score</f>
+        <v>56</v>
+      </c>
+      <c r="AK23" t="b">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="4:39" x14ac:dyDescent="0.45">
       <c r="D24">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I24">
         <v>2</v>
@@ -2657,13 +2772,13 @@
       <c r="AC24">
         <v>72</v>
       </c>
-      <c r="AD24" s="4" t="e" cm="1">
+      <c r="AD24" s="4" cm="1">
         <f t="array" aca="1" ref="AD24" ca="1">_xlfn.IFS(I24=1, fu.score, I24=2, ffu.score)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AE24" t="e">
+        <v>100</v>
+      </c>
+      <c r="AE24" t="b">
         <f t="shared" ca="1" si="8"/>
-        <v>#N/A</v>
+        <v>1</v>
       </c>
       <c r="AF24">
         <v>93</v>
@@ -2676,18 +2791,23 @@
         <f t="shared" ca="1" si="9"/>
         <v>1</v>
       </c>
-      <c r="AI24">
-        <v>1463</v>
+      <c r="AI24" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1251</v>
       </c>
       <c r="AJ24" cm="1">
-        <f t="array" aca="1" ref="AJ24" ca="1">INDEX(男跑!$A$1:$A$249,m.run.row,1)</f>
-        <v>68</v>
+        <f t="array" aca="1" ref="AJ24" ca="1">m.run.score</f>
+        <v>83</v>
+      </c>
+      <c r="AK24" t="b">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="4:39" x14ac:dyDescent="0.45">
       <c r="D25">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I25">
         <v>2</v>
@@ -2697,7 +2817,7 @@
       </c>
       <c r="AD25" s="4" cm="1">
         <f t="array" aca="1" ref="AD25" ca="1">_xlfn.IFS(I25=1, fu.score, I25=2, ffu.score)</f>
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AE25" t="b">
         <f t="shared" ca="1" si="8"/>
@@ -2708,24 +2828,29 @@
       </c>
       <c r="AG25" cm="1">
         <f t="array" aca="1" ref="AG25" ca="1">_xlfn.IFS(I25=1, m.push.score,I25=2, f.push.score)</f>
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AH25" t="b">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
-      <c r="AI25">
-        <v>1701</v>
+      <c r="AI25" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1920</v>
       </c>
       <c r="AJ25" cm="1">
-        <f t="array" aca="1" ref="AJ25" ca="1">INDEX(男跑!$A$1:$A$249,m.run.row,1)</f>
-        <v>44</v>
+        <f t="array" aca="1" ref="AJ25" ca="1">m.run.score</f>
+        <v>38</v>
+      </c>
+      <c r="AK25" t="b">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="4:39" x14ac:dyDescent="0.45">
       <c r="D26">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="I26">
         <v>2</v>
@@ -2735,7 +2860,7 @@
       </c>
       <c r="AD26" s="4" cm="1">
         <f t="array" aca="1" ref="AD26" ca="1">_xlfn.IFS(I26=1, fu.score, I26=2, ffu.score)</f>
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AE26" t="b">
         <f t="shared" ca="1" si="8"/>
@@ -2746,24 +2871,29 @@
       </c>
       <c r="AG26" cm="1">
         <f t="array" aca="1" ref="AG26" ca="1">_xlfn.IFS(I26=1, m.push.score,I26=2, f.push.score)</f>
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="AH26" t="b">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
-      <c r="AI26">
-        <v>1552</v>
+      <c r="AI26" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1542</v>
       </c>
       <c r="AJ26" cm="1">
-        <f t="array" aca="1" ref="AJ26" ca="1">INDEX(男跑!$A$1:$A$249,m.run.row,1)</f>
-        <v>68</v>
+        <f t="array" aca="1" ref="AJ26" ca="1">m.run.score</f>
+        <v>74</v>
+      </c>
+      <c r="AK26" t="b">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="4:39" x14ac:dyDescent="0.45">
       <c r="D27">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I27">
         <v>2</v>
@@ -2790,18 +2920,23 @@
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
-      <c r="AI27">
-        <v>1099</v>
+      <c r="AI27" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1244</v>
       </c>
       <c r="AJ27" cm="1">
-        <f t="array" aca="1" ref="AJ27" ca="1">INDEX(男跑!$A$1:$A$249,m.run.row,1)</f>
-        <v>95</v>
+        <f t="array" aca="1" ref="AJ27" ca="1">m.run.score</f>
+        <v>82</v>
+      </c>
+      <c r="AK27" t="b">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="4:39" x14ac:dyDescent="0.45">
       <c r="D28">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I28">
         <v>2</v>
@@ -2811,7 +2946,7 @@
       </c>
       <c r="AD28" s="4" cm="1">
         <f t="array" aca="1" ref="AD28" ca="1">_xlfn.IFS(I28=1, fu.score, I28=2, ffu.score)</f>
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AE28" t="b">
         <f t="shared" ca="1" si="8"/>
@@ -2822,24 +2957,29 @@
       </c>
       <c r="AG28" cm="1">
         <f t="array" aca="1" ref="AG28" ca="1">_xlfn.IFS(I28=1, m.push.score,I28=2, f.push.score)</f>
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="AH28" t="b">
         <f t="shared" ca="1" si="9"/>
         <v>1</v>
       </c>
-      <c r="AI28">
-        <v>1275</v>
+      <c r="AI28" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1907</v>
       </c>
       <c r="AJ28" cm="1">
-        <f t="array" aca="1" ref="AJ28" ca="1">INDEX(男跑!$A$1:$A$249,m.run.row,1)</f>
-        <v>89</v>
+        <f t="array" aca="1" ref="AJ28" ca="1">m.run.score</f>
+        <v>38</v>
+      </c>
+      <c r="AK28" t="b">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="4:39" x14ac:dyDescent="0.45">
       <c r="D29">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="I29">
         <v>2</v>
@@ -2849,7 +2989,7 @@
       </c>
       <c r="AD29" s="4" cm="1">
         <f t="array" aca="1" ref="AD29" ca="1">_xlfn.IFS(I29=1, fu.score, I29=2, ffu.score)</f>
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AE29" t="b">
         <f t="shared" ca="1" si="8"/>
@@ -2866,18 +3006,23 @@
         <f t="shared" ca="1" si="9"/>
         <v>1</v>
       </c>
-      <c r="AI29">
-        <v>1355</v>
+      <c r="AI29" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1534</v>
       </c>
       <c r="AJ29" cm="1">
-        <f t="array" aca="1" ref="AJ29" ca="1">INDEX(男跑!$A$1:$A$249,m.run.row,1)</f>
-        <v>73</v>
+        <f t="array" aca="1" ref="AJ29" ca="1">m.run.score</f>
+        <v>76</v>
+      </c>
+      <c r="AK29" t="b">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="4:39" x14ac:dyDescent="0.45">
       <c r="D30">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I30">
         <v>1</v>
@@ -2887,35 +3032,40 @@
       </c>
       <c r="AD30" s="4" cm="1">
         <f t="array" aca="1" ref="AD30" ca="1">_xlfn.IFS(I30=1, fu.score, I30=2, ffu.score)</f>
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="AE30" t="b">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF30">
         <v>63</v>
       </c>
       <c r="AG30" cm="1">
         <f t="array" aca="1" ref="AG30" ca="1">_xlfn.IFS(I30=1, m.push.score,I30=2, f.push.score)</f>
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="AH30" t="b">
         <f t="shared" ca="1" si="9"/>
         <v>1</v>
       </c>
-      <c r="AI30">
-        <v>1692</v>
+      <c r="AI30" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1329</v>
       </c>
       <c r="AJ30" cm="1">
-        <f t="array" aca="1" ref="AJ30" ca="1">INDEX(男跑!$A$1:$A$249,m.run.row,1)</f>
-        <v>48</v>
+        <f t="array" aca="1" ref="AJ30" ca="1">m.run.score</f>
+        <v>79</v>
+      </c>
+      <c r="AK30" t="b">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="4:39" x14ac:dyDescent="0.45">
       <c r="D31">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I31">
         <v>1</v>
@@ -2925,7 +3075,7 @@
       </c>
       <c r="AD31" s="4" cm="1">
         <f t="array" aca="1" ref="AD31" ca="1">_xlfn.IFS(I31=1, fu.score, I31=2, ffu.score)</f>
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE31" t="b">
         <f t="shared" ca="1" si="8"/>
@@ -2942,18 +3092,23 @@
         <f t="shared" ca="1" si="9"/>
         <v>1</v>
       </c>
-      <c r="AI31">
-        <v>1181</v>
+      <c r="AI31" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1857</v>
       </c>
       <c r="AJ31" cm="1">
-        <f t="array" aca="1" ref="AJ31" ca="1">INDEX(男跑!$A$1:$A$249,m.run.row,1)</f>
-        <v>89</v>
+        <f t="array" aca="1" ref="AJ31" ca="1">m.run.score</f>
+        <v>38</v>
+      </c>
+      <c r="AK31" t="b">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="4:39" x14ac:dyDescent="0.45">
       <c r="D32">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="I32">
         <v>1</v>
@@ -2963,7 +3118,7 @@
       </c>
       <c r="AD32" s="4" cm="1">
         <f t="array" aca="1" ref="AD32" ca="1">_xlfn.IFS(I32=1, fu.score, I32=2, ffu.score)</f>
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="AE32" t="b">
         <f t="shared" ca="1" si="8"/>
@@ -2974,24 +3129,29 @@
       </c>
       <c r="AG32" cm="1">
         <f t="array" aca="1" ref="AG32" ca="1">_xlfn.IFS(I32=1, m.push.score,I32=2, f.push.score)</f>
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AH32" t="b">
         <f t="shared" ca="1" si="9"/>
         <v>1</v>
       </c>
-      <c r="AI32">
-        <v>1153</v>
+      <c r="AI32" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1322</v>
       </c>
       <c r="AJ32" cm="1">
-        <f t="array" aca="1" ref="AJ32" ca="1">INDEX(男跑!$A$1:$A$249,m.run.row,1)</f>
-        <v>100</v>
+        <f t="array" aca="1" ref="AJ32" ca="1">m.run.score</f>
+        <v>80</v>
+      </c>
+      <c r="AK32" t="b">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
       </c>
     </row>
-    <row r="33" spans="4:36" x14ac:dyDescent="0.45">
+    <row r="33" spans="4:37" x14ac:dyDescent="0.45">
       <c r="D33">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I33">
         <v>2</v>
@@ -3001,7 +3161,7 @@
       </c>
       <c r="AD33" s="4" cm="1">
         <f t="array" aca="1" ref="AD33" ca="1">_xlfn.IFS(I33=1, fu.score, I33=2, ffu.score)</f>
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AE33" t="b">
         <f t="shared" ca="1" si="8"/>
@@ -3012,24 +3172,29 @@
       </c>
       <c r="AG33" cm="1">
         <f t="array" aca="1" ref="AG33" ca="1">_xlfn.IFS(I33=1, m.push.score,I33=2, f.push.score)</f>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AH33" t="b">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
-      <c r="AI33">
-        <v>1635</v>
+      <c r="AI33" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1930</v>
       </c>
       <c r="AJ33" cm="1">
-        <f t="array" aca="1" ref="AJ33" ca="1">INDEX(男跑!$A$1:$A$249,m.run.row,1)</f>
-        <v>42</v>
+        <f t="array" aca="1" ref="AJ33" ca="1">m.run.score</f>
+        <v>38</v>
+      </c>
+      <c r="AK33" t="b">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="4:36" x14ac:dyDescent="0.45">
+    <row r="34" spans="4:37" x14ac:dyDescent="0.45">
       <c r="D34">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="I34">
         <v>1</v>
@@ -3039,7 +3204,7 @@
       </c>
       <c r="AD34" s="4" cm="1">
         <f t="array" aca="1" ref="AD34" ca="1">_xlfn.IFS(I34=1, fu.score, I34=2, ffu.score)</f>
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AE34" t="b">
         <f t="shared" ca="1" si="8"/>
@@ -3050,24 +3215,29 @@
       </c>
       <c r="AG34" cm="1">
         <f t="array" aca="1" ref="AG34" ca="1">_xlfn.IFS(I34=1, m.push.score,I34=2, f.push.score)</f>
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH34" t="b">
         <f t="shared" ca="1" si="9"/>
         <v>1</v>
       </c>
-      <c r="AI34">
-        <v>1282</v>
+      <c r="AI34" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1747</v>
       </c>
       <c r="AJ34" cm="1">
-        <f t="array" aca="1" ref="AJ34" ca="1">INDEX(男跑!$A$1:$A$249,m.run.row,1)</f>
-        <v>88</v>
+        <f t="array" aca="1" ref="AJ34" ca="1">m.run.score</f>
+        <v>38</v>
+      </c>
+      <c r="AK34" t="b">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="4:36" x14ac:dyDescent="0.45">
+    <row r="35" spans="4:37" x14ac:dyDescent="0.45">
       <c r="D35">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="I35">
         <v>1</v>
@@ -3077,35 +3247,40 @@
       </c>
       <c r="AD35" s="4" cm="1">
         <f t="array" aca="1" ref="AD35" ca="1">_xlfn.IFS(I35=1, fu.score, I35=2, ffu.score)</f>
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="AE35" t="b">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF35">
         <v>67</v>
       </c>
       <c r="AG35" cm="1">
         <f t="array" aca="1" ref="AG35" ca="1">_xlfn.IFS(I35=1, m.push.score,I35=2, f.push.score)</f>
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="AH35" t="b">
         <f t="shared" ca="1" si="9"/>
         <v>1</v>
       </c>
-      <c r="AI35">
-        <v>1296</v>
-      </c>
-      <c r="AJ35" t="e" cm="1">
-        <f t="array" aca="1" ref="AJ35" ca="1">INDEX(男跑!$A$1:$A$249,m.run.row,1)</f>
-        <v>#N/A</v>
+      <c r="AI35" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1353</v>
+      </c>
+      <c r="AJ35" cm="1">
+        <f t="array" aca="1" ref="AJ35" ca="1">m.run.score</f>
+        <v>71</v>
+      </c>
+      <c r="AK35" t="b">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
       </c>
     </row>
-    <row r="36" spans="4:36" x14ac:dyDescent="0.45">
+    <row r="36" spans="4:37" x14ac:dyDescent="0.45">
       <c r="D36">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I36">
         <v>1</v>
@@ -3115,7 +3290,7 @@
       </c>
       <c r="AD36" s="4" cm="1">
         <f t="array" aca="1" ref="AD36" ca="1">_xlfn.IFS(I36=1, fu.score, I36=2, ffu.score)</f>
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AE36" t="b">
         <f t="shared" ca="1" si="8"/>
@@ -3126,24 +3301,29 @@
       </c>
       <c r="AG36" cm="1">
         <f t="array" aca="1" ref="AG36" ca="1">_xlfn.IFS(I36=1, m.push.score,I36=2, f.push.score)</f>
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AH36" t="b">
         <f t="shared" ca="1" si="9"/>
         <v>1</v>
       </c>
-      <c r="AI36">
-        <v>1076</v>
-      </c>
-      <c r="AJ36" t="e" cm="1">
-        <f t="array" aca="1" ref="AJ36" ca="1">INDEX(男跑!$A$1:$A$249,m.run.row,1)</f>
-        <v>#N/A</v>
+      <c r="AI36" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1202</v>
+      </c>
+      <c r="AJ36" cm="1">
+        <f t="array" aca="1" ref="AJ36" ca="1">m.run.score</f>
+        <v>100</v>
+      </c>
+      <c r="AK36" t="b">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
       </c>
     </row>
-    <row r="37" spans="4:36" x14ac:dyDescent="0.45">
+    <row r="37" spans="4:37" x14ac:dyDescent="0.45">
       <c r="D37">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I37">
         <v>2</v>
@@ -3153,7 +3333,7 @@
       </c>
       <c r="AD37" s="4" cm="1">
         <f t="array" aca="1" ref="AD37" ca="1">_xlfn.IFS(I37=1, fu.score, I37=2, ffu.score)</f>
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="AE37" t="b">
         <f t="shared" ca="1" si="8"/>
@@ -3170,12 +3350,17 @@
         <f t="shared" ca="1" si="9"/>
         <v>1</v>
       </c>
-      <c r="AI37">
-        <v>1154</v>
+      <c r="AI37" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1312</v>
       </c>
       <c r="AJ37" cm="1">
-        <f t="array" aca="1" ref="AJ37" ca="1">INDEX(男跑!$A$1:$A$249,m.run.row,1)</f>
-        <v>95</v>
+        <f t="array" aca="1" ref="AJ37" ca="1">m.run.score</f>
+        <v>90</v>
+      </c>
+      <c r="AK37" t="b">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3193,6 +3378,7 @@
     <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
   <cols>
@@ -3273,6 +3459,7 @@
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AJ28" sqref="AJ28"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
   <cols>
@@ -13859,6 +14046,7 @@
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AJ16" sqref="AJ16"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
   <cols>
@@ -22990,6 +23178,7 @@
     <sheetView topLeftCell="A111" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="AU151" sqref="AU151"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
   <cols>
@@ -44603,6 +44792,7 @@
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="U10" sqref="U10"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
   <cols>
@@ -57066,8 +57256,11 @@
   <sheetPr codeName="工作表7"/>
   <dimension ref="A1:AT249"/>
   <sheetViews>
-    <sheetView topLeftCell="F9" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView topLeftCell="F40" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AC1" sqref="AC1:AC1048576"/>
+    </sheetView>
+    <sheetView topLeftCell="A223" zoomScale="55" zoomScaleNormal="55" workbookViewId="1">
+      <selection activeCell="A112" sqref="A112:A249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
@@ -74823,7 +75016,7 @@
     </row>
     <row r="112" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A112">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B112">
         <f>B111+5</f>
@@ -75008,7 +75201,7 @@
     </row>
     <row r="113" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A113">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B113">
         <f t="shared" ref="B113:B136" si="46">B112+5</f>
@@ -75193,7 +75386,7 @@
     </row>
     <row r="114" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A114">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B114">
         <f t="shared" si="46"/>
@@ -75378,7 +75571,7 @@
     </row>
     <row r="115" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A115">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B115">
         <f t="shared" si="46"/>
@@ -75563,7 +75756,7 @@
     </row>
     <row r="116" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A116">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B116">
         <f t="shared" si="46"/>
@@ -75748,7 +75941,7 @@
     </row>
     <row r="117" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A117">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B117">
         <f t="shared" si="46"/>
@@ -75933,7 +76126,7 @@
     </row>
     <row r="118" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A118">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B118">
         <f t="shared" si="46"/>
@@ -76118,7 +76311,7 @@
     </row>
     <row r="119" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A119">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B119">
         <f t="shared" si="46"/>
@@ -76303,7 +76496,7 @@
     </row>
     <row r="120" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A120">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B120">
         <f t="shared" si="46"/>
@@ -76488,7 +76681,7 @@
     </row>
     <row r="121" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A121">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B121">
         <f t="shared" si="46"/>
@@ -76673,7 +76866,7 @@
     </row>
     <row r="122" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A122">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B122">
         <f t="shared" si="46"/>
@@ -76858,7 +77051,7 @@
     </row>
     <row r="123" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A123">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B123">
         <f t="shared" si="46"/>
@@ -77043,7 +77236,7 @@
     </row>
     <row r="124" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A124">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B124">
         <f t="shared" si="46"/>
@@ -77228,7 +77421,7 @@
     </row>
     <row r="125" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A125">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B125">
         <f t="shared" si="46"/>
@@ -77413,7 +77606,7 @@
     </row>
     <row r="126" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A126">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B126">
         <f t="shared" si="46"/>
@@ -77598,7 +77791,7 @@
     </row>
     <row r="127" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A127">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B127">
         <f t="shared" si="46"/>
@@ -77783,7 +77976,7 @@
     </row>
     <row r="128" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A128">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B128">
         <f t="shared" si="46"/>
@@ -77968,7 +78161,7 @@
     </row>
     <row r="129" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A129">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B129">
         <f t="shared" si="46"/>
@@ -78153,7 +78346,7 @@
     </row>
     <row r="130" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A130">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B130">
         <f t="shared" si="46"/>
@@ -78338,7 +78531,7 @@
     </row>
     <row r="131" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A131">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B131">
         <f t="shared" si="46"/>
@@ -78523,7 +78716,7 @@
     </row>
     <row r="132" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A132">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B132">
         <f t="shared" si="46"/>
@@ -78708,7 +78901,7 @@
     </row>
     <row r="133" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A133">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B133">
         <f t="shared" si="46"/>
@@ -78893,7 +79086,7 @@
     </row>
     <row r="134" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A134">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B134">
         <f t="shared" si="46"/>
@@ -79078,7 +79271,7 @@
     </row>
     <row r="135" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A135">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B135">
         <f t="shared" si="46"/>
@@ -79263,7 +79456,7 @@
     </row>
     <row r="136" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A136">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B136">
         <f t="shared" si="46"/>
@@ -79448,7 +79641,7 @@
     </row>
     <row r="137" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A137">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B137">
         <f t="shared" ref="B137:B160" si="91">B136+5</f>
@@ -79633,7 +79826,7 @@
     </row>
     <row r="138" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A138">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B138">
         <f t="shared" si="91"/>
@@ -79818,7 +80011,7 @@
     </row>
     <row r="139" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A139">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B139">
         <f t="shared" si="91"/>
@@ -80003,7 +80196,7 @@
     </row>
     <row r="140" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A140">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B140">
         <f t="shared" si="91"/>
@@ -80188,7 +80381,7 @@
     </row>
     <row r="141" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A141">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B141">
         <f t="shared" si="91"/>
@@ -80373,7 +80566,7 @@
     </row>
     <row r="142" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A142">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B142">
         <f t="shared" si="91"/>
@@ -80558,7 +80751,7 @@
     </row>
     <row r="143" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A143">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B143">
         <f t="shared" si="91"/>
@@ -80743,7 +80936,7 @@
     </row>
     <row r="144" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A144">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B144">
         <f t="shared" si="91"/>
@@ -80928,7 +81121,7 @@
     </row>
     <row r="145" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A145">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B145">
         <f t="shared" si="91"/>
@@ -81113,7 +81306,7 @@
     </row>
     <row r="146" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A146">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B146">
         <f t="shared" si="91"/>
@@ -81298,7 +81491,7 @@
     </row>
     <row r="147" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A147">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B147">
         <f t="shared" si="91"/>
@@ -81483,7 +81676,7 @@
     </row>
     <row r="148" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A148">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B148">
         <f t="shared" si="91"/>
@@ -81668,7 +81861,7 @@
     </row>
     <row r="149" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A149">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B149">
         <f t="shared" si="91"/>
@@ -81853,7 +82046,7 @@
     </row>
     <row r="150" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A150">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B150">
         <f t="shared" si="91"/>
@@ -82038,7 +82231,7 @@
     </row>
     <row r="151" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A151">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B151">
         <f t="shared" si="91"/>
@@ -82223,7 +82416,7 @@
     </row>
     <row r="152" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A152">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B152">
         <f t="shared" si="91"/>
@@ -82408,7 +82601,7 @@
     </row>
     <row r="153" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A153">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B153">
         <f t="shared" si="91"/>
@@ -82593,7 +82786,7 @@
     </row>
     <row r="154" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A154">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B154">
         <f t="shared" si="91"/>
@@ -82778,7 +82971,7 @@
     </row>
     <row r="155" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A155">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B155">
         <f t="shared" si="91"/>
@@ -82963,7 +83156,7 @@
     </row>
     <row r="156" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A156">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B156">
         <f t="shared" si="91"/>
@@ -83148,7 +83341,7 @@
     </row>
     <row r="157" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A157">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B157">
         <f t="shared" si="91"/>
@@ -83333,7 +83526,7 @@
     </row>
     <row r="158" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A158">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B158">
         <f t="shared" si="91"/>
@@ -83518,7 +83711,7 @@
     </row>
     <row r="159" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A159">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B159">
         <f t="shared" si="91"/>
@@ -83703,7 +83896,7 @@
     </row>
     <row r="160" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A160">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B160">
         <f t="shared" si="91"/>
@@ -83888,7 +84081,7 @@
     </row>
     <row r="161" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A161">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B161">
         <f t="shared" ref="B161:B204" si="136">B160+5</f>
@@ -84073,7 +84266,7 @@
     </row>
     <row r="162" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A162">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B162">
         <f t="shared" si="136"/>
@@ -84258,7 +84451,7 @@
     </row>
     <row r="163" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A163">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B163">
         <f t="shared" si="136"/>
@@ -84443,7 +84636,7 @@
     </row>
     <row r="164" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A164">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B164">
         <f t="shared" si="136"/>
@@ -84628,7 +84821,7 @@
     </row>
     <row r="165" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A165">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B165">
         <f t="shared" si="136"/>
@@ -84813,7 +85006,7 @@
     </row>
     <row r="166" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A166">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B166">
         <f t="shared" si="136"/>
@@ -84998,7 +85191,7 @@
     </row>
     <row r="167" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A167">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B167">
         <f t="shared" si="136"/>
@@ -85183,7 +85376,7 @@
     </row>
     <row r="168" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A168">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B168">
         <f t="shared" si="136"/>
@@ -85368,7 +85561,7 @@
     </row>
     <row r="169" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A169">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B169">
         <f t="shared" si="136"/>
@@ -85553,7 +85746,7 @@
     </row>
     <row r="170" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A170">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B170">
         <f t="shared" si="136"/>
@@ -85738,7 +85931,7 @@
     </row>
     <row r="171" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A171">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B171">
         <f t="shared" si="136"/>
@@ -85923,7 +86116,7 @@
     </row>
     <row r="172" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A172">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B172">
         <f t="shared" si="136"/>
@@ -86108,7 +86301,7 @@
     </row>
     <row r="173" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A173">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B173">
         <f t="shared" si="136"/>
@@ -86293,7 +86486,7 @@
     </row>
     <row r="174" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A174">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B174">
         <f t="shared" si="136"/>
@@ -86478,7 +86671,7 @@
     </row>
     <row r="175" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A175">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B175">
         <f t="shared" si="136"/>
@@ -86663,7 +86856,7 @@
     </row>
     <row r="176" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A176">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B176">
         <f t="shared" si="136"/>
@@ -86848,7 +87041,7 @@
     </row>
     <row r="177" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A177">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B177">
         <f t="shared" si="136"/>
@@ -87033,7 +87226,7 @@
     </row>
     <row r="178" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A178">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B178">
         <f t="shared" si="136"/>
@@ -87218,7 +87411,7 @@
     </row>
     <row r="179" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A179">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B179">
         <f t="shared" si="136"/>
@@ -87403,7 +87596,7 @@
     </row>
     <row r="180" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A180">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B180">
         <f t="shared" si="136"/>
@@ -87588,7 +87781,7 @@
     </row>
     <row r="181" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A181">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B181">
         <f t="shared" si="136"/>
@@ -87773,7 +87966,7 @@
     </row>
     <row r="182" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A182">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B182">
         <f t="shared" si="136"/>
@@ -87958,7 +88151,7 @@
     </row>
     <row r="183" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A183">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B183">
         <f t="shared" si="136"/>
@@ -88143,7 +88336,7 @@
     </row>
     <row r="184" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A184">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B184">
         <f t="shared" si="136"/>
@@ -88328,7 +88521,7 @@
     </row>
     <row r="185" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A185">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B185">
         <f t="shared" si="136"/>
@@ -88513,7 +88706,7 @@
     </row>
     <row r="186" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A186">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B186">
         <f t="shared" si="136"/>
@@ -88698,7 +88891,7 @@
     </row>
     <row r="187" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A187">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B187">
         <f t="shared" si="136"/>
@@ -88883,7 +89076,7 @@
     </row>
     <row r="188" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A188">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B188">
         <f t="shared" si="136"/>
@@ -89068,7 +89261,7 @@
     </row>
     <row r="189" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A189">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B189">
         <f t="shared" si="136"/>
@@ -89253,7 +89446,7 @@
     </row>
     <row r="190" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A190">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B190">
         <f t="shared" si="136"/>
@@ -89438,7 +89631,7 @@
     </row>
     <row r="191" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A191">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B191">
         <f t="shared" si="136"/>
@@ -89623,7 +89816,7 @@
     </row>
     <row r="192" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A192">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B192">
         <f t="shared" si="136"/>
@@ -89808,7 +90001,7 @@
     </row>
     <row r="193" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A193">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B193">
         <f t="shared" si="136"/>
@@ -89993,7 +90186,7 @@
     </row>
     <row r="194" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A194">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B194">
         <f t="shared" si="136"/>
@@ -90178,7 +90371,7 @@
     </row>
     <row r="195" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A195">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B195">
         <f t="shared" si="136"/>
@@ -90363,7 +90556,7 @@
     </row>
     <row r="196" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A196">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B196">
         <f t="shared" si="136"/>
@@ -90548,7 +90741,7 @@
     </row>
     <row r="197" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A197">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B197">
         <f t="shared" si="136"/>
@@ -90733,7 +90926,7 @@
     </row>
     <row r="198" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A198">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B198">
         <f t="shared" si="136"/>
@@ -90918,7 +91111,7 @@
     </row>
     <row r="199" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A199">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B199">
         <f t="shared" si="136"/>
@@ -91103,7 +91296,7 @@
     </row>
     <row r="200" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A200">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B200">
         <f t="shared" si="136"/>
@@ -91288,7 +91481,7 @@
     </row>
     <row r="201" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A201">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B201">
         <f t="shared" si="136"/>
@@ -91473,7 +91666,7 @@
     </row>
     <row r="202" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A202">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B202">
         <f t="shared" si="136"/>
@@ -91658,7 +91851,7 @@
     </row>
     <row r="203" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A203">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B203">
         <f t="shared" si="136"/>
@@ -91843,7 +92036,7 @@
     </row>
     <row r="204" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A204">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B204">
         <f t="shared" si="136"/>
@@ -92028,7 +92221,7 @@
     </row>
     <row r="205" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A205">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B205">
         <f t="shared" ref="B205:B249" si="181">B204+5</f>
@@ -92213,7 +92406,7 @@
     </row>
     <row r="206" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A206">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B206">
         <f t="shared" si="181"/>
@@ -92398,7 +92591,7 @@
     </row>
     <row r="207" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A207">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B207">
         <f t="shared" si="181"/>
@@ -92583,7 +92776,7 @@
     </row>
     <row r="208" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A208">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B208">
         <f t="shared" si="181"/>
@@ -92768,7 +92961,7 @@
     </row>
     <row r="209" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A209">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B209">
         <f t="shared" si="181"/>
@@ -92953,7 +93146,7 @@
     </row>
     <row r="210" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A210">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B210">
         <f t="shared" si="181"/>
@@ -93138,7 +93331,7 @@
     </row>
     <row r="211" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A211">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B211">
         <f t="shared" si="181"/>
@@ -93323,7 +93516,7 @@
     </row>
     <row r="212" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A212">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B212">
         <f t="shared" si="181"/>
@@ -93508,7 +93701,7 @@
     </row>
     <row r="213" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A213">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B213">
         <f t="shared" si="181"/>
@@ -93693,7 +93886,7 @@
     </row>
     <row r="214" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A214">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B214">
         <f t="shared" si="181"/>
@@ -93878,7 +94071,7 @@
     </row>
     <row r="215" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A215">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B215">
         <f t="shared" si="181"/>
@@ -94063,7 +94256,7 @@
     </row>
     <row r="216" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A216">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B216">
         <f t="shared" si="181"/>
@@ -94248,7 +94441,7 @@
     </row>
     <row r="217" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A217">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B217">
         <f t="shared" si="181"/>
@@ -94433,7 +94626,7 @@
     </row>
     <row r="218" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A218">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B218">
         <f t="shared" si="181"/>
@@ -94618,7 +94811,7 @@
     </row>
     <row r="219" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A219">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B219">
         <f t="shared" si="181"/>
@@ -94803,7 +94996,7 @@
     </row>
     <row r="220" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A220">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B220">
         <f t="shared" si="181"/>
@@ -94988,7 +95181,7 @@
     </row>
     <row r="221" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A221">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B221">
         <f t="shared" si="181"/>
@@ -95173,7 +95366,7 @@
     </row>
     <row r="222" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A222">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B222">
         <f t="shared" si="181"/>
@@ -95358,7 +95551,7 @@
     </row>
     <row r="223" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A223">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B223">
         <f t="shared" si="181"/>
@@ -95543,7 +95736,7 @@
     </row>
     <row r="224" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A224">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B224">
         <f t="shared" si="181"/>
@@ -95728,7 +95921,7 @@
     </row>
     <row r="225" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A225">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B225">
         <f t="shared" si="181"/>
@@ -95913,7 +96106,7 @@
     </row>
     <row r="226" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A226">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B226">
         <f t="shared" si="181"/>
@@ -96098,7 +96291,7 @@
     </row>
     <row r="227" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A227">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B227">
         <f t="shared" si="181"/>
@@ -96283,7 +96476,7 @@
     </row>
     <row r="228" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A228">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B228">
         <f t="shared" si="181"/>
@@ -96468,7 +96661,7 @@
     </row>
     <row r="229" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A229">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B229">
         <f t="shared" si="181"/>
@@ -96653,7 +96846,7 @@
     </row>
     <row r="230" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A230">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B230">
         <f t="shared" si="181"/>
@@ -96838,7 +97031,7 @@
     </row>
     <row r="231" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A231">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B231">
         <f t="shared" si="181"/>
@@ -97023,7 +97216,7 @@
     </row>
     <row r="232" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A232">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B232">
         <f t="shared" si="181"/>
@@ -97208,7 +97401,7 @@
     </row>
     <row r="233" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A233">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B233">
         <f t="shared" si="181"/>
@@ -97393,7 +97586,7 @@
     </row>
     <row r="234" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A234">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B234">
         <f t="shared" si="181"/>
@@ -97578,7 +97771,7 @@
     </row>
     <row r="235" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A235">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B235">
         <f t="shared" si="181"/>
@@ -97763,7 +97956,7 @@
     </row>
     <row r="236" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A236">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B236">
         <f t="shared" si="181"/>
@@ -97948,7 +98141,7 @@
     </row>
     <row r="237" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A237">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B237">
         <f t="shared" si="181"/>
@@ -98133,7 +98326,7 @@
     </row>
     <row r="238" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A238">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B238">
         <f t="shared" si="181"/>
@@ -98318,7 +98511,7 @@
     </row>
     <row r="239" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A239">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B239">
         <f t="shared" si="181"/>
@@ -98503,7 +98696,7 @@
     </row>
     <row r="240" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A240">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B240">
         <f t="shared" si="181"/>
@@ -98688,7 +98881,7 @@
     </row>
     <row r="241" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A241">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B241">
         <f t="shared" si="181"/>
@@ -98873,7 +99066,7 @@
     </row>
     <row r="242" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A242">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B242">
         <f t="shared" si="181"/>
@@ -99058,7 +99251,7 @@
     </row>
     <row r="243" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A243">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B243">
         <f t="shared" si="181"/>
@@ -99243,7 +99436,7 @@
     </row>
     <row r="244" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A244">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B244">
         <f t="shared" si="181"/>
@@ -99428,7 +99621,7 @@
     </row>
     <row r="245" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A245">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B245">
         <f t="shared" si="181"/>
@@ -99613,7 +99806,7 @@
     </row>
     <row r="246" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A246">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B246">
         <f t="shared" si="181"/>
@@ -99798,7 +99991,7 @@
     </row>
     <row r="247" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A247">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B247">
         <f t="shared" si="181"/>
@@ -99983,7 +100176,7 @@
     </row>
     <row r="248" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A248">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B248">
         <f t="shared" si="181"/>
@@ -100168,7 +100361,7 @@
     </row>
     <row r="249" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A249">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B249">
         <f t="shared" si="181"/>
@@ -100363,6 +100556,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
   <sheetData/>
